--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-AL-algemeen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-AL-algemeen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\ontwikkeling\objectentabellen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C66249-CD77-47C6-85BC-A43626D0A0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB53E917-725E-4ABE-BE59-229CB666D19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{ED982077-2CAF-44FA-8801-339F1381AE97}"/>
+    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{0ADE6962-4B01-4437-B1AF-B39BE1B6C315}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-AL-algemee" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="179">
   <si>
     <t>objectURI</t>
   </si>
@@ -343,6 +343,18 @@
     <t>SAL-AANKLEDING</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/7158aa53-1b03-40c5-bf95-8d31e2c72624</t>
+  </si>
+  <si>
+    <t>TEKENBLAD_KADER</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/0ed07195-cd00-494b-b858-f267996e8f29</t>
+  </si>
+  <si>
+    <t>0.70</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/3455519b-0969-441e-9066-defcb5245141</t>
   </si>
   <si>
@@ -460,15 +472,18 @@
     <t>TEKENBLAD_KADER_AFSNIJMARKERING</t>
   </si>
   <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/7158aa53-1b03-40c5-bf95-8d31e2c72624</t>
-  </si>
-  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/136521c9-daf1-49e9-b172-75e75b470a76</t>
   </si>
   <si>
     <t>TEKENBLAD_KADER_ROOSTERVERDELING</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/142d5294-b077-446d-87e7-30f2777e841d</t>
+  </si>
+  <si>
+    <t>TEKENBLAD_KADER_CENTERMARKERING</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/5c8ecbe8-2744-4c16-87df-9a4db5b2c7c8</t>
   </si>
   <si>
@@ -545,15 +560,6 @@
   </si>
   <si>
     <t>TEKENBLAD_WERKZAAMHEDEN_LIJST</t>
-  </si>
-  <si>
-    <t>TEKENBLAD_KADER</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/142d5294-b077-446d-87e7-30f2777e841d</t>
-  </si>
-  <si>
-    <t>TEKENBLAD_KADER_CENTERMARKERING</t>
   </si>
 </sst>
 </file>
@@ -1413,19 +1419,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31B9CE5-1C0A-444F-9FF0-53F8FBA86B73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764D7539-1B94-445B-89D2-C76CDB7F597D}">
   <dimension ref="A1:BS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="66" width="0" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="8.7265625" customWidth="1"/>
-    <col min="68" max="68" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.35">
@@ -1716,7 +1719,7 @@
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -1728,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H3" t="s">
         <v>76</v>
@@ -1781,7 +1784,7 @@
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -1793,10 +1796,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
         <v>138</v>
-      </c>
-      <c r="F4" t="s">
-        <v>134</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1852,7 +1855,7 @@
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -1864,10 +1867,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1923,7 +1926,7 @@
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -1935,10 +1938,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1994,7 +1997,7 @@
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -2006,10 +2009,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2065,7 +2068,7 @@
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -2077,10 +2080,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2136,7 +2139,7 @@
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -2148,7 +2151,7 @@
         <v>3364</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H9" t="s">
         <v>76</v>
@@ -2201,7 +2204,7 @@
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -2213,7 +2216,7 @@
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H10" t="s">
         <v>76</v>
@@ -2337,7 +2340,7 @@
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -2349,7 +2352,7 @@
         <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H12" t="s">
         <v>76</v>
@@ -2402,7 +2405,7 @@
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
@@ -2414,7 +2417,7 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H13" t="s">
         <v>76</v>
@@ -2538,7 +2541,7 @@
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -2550,7 +2553,7 @@
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
         <v>75</v>
@@ -2609,7 +2612,7 @@
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
@@ -2621,7 +2624,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
         <v>75</v>
@@ -2634,11 +2637,53 @@
       </c>
       <c r="I16" t="s">
         <v>77</v>
+      </c>
+      <c r="J16" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16">
+        <v>7</v>
+      </c>
+      <c r="N16" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16">
+        <v>7</v>
+      </c>
+      <c r="P16" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q16">
+        <v>7</v>
+      </c>
+      <c r="R16" t="s">
+        <v>80</v>
+      </c>
+      <c r="S16">
+        <v>7</v>
+      </c>
+      <c r="T16" t="s">
+        <v>81</v>
+      </c>
+      <c r="U16">
+        <v>253</v>
+      </c>
+      <c r="V16" t="s">
+        <v>82</v>
+      </c>
+      <c r="W16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -2650,10 +2695,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="G17">
         <v>15</v>
@@ -2709,7 +2754,7 @@
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -2721,10 +2766,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="G18">
         <v>15</v>
@@ -2734,11 +2779,53 @@
       </c>
       <c r="I18" t="s">
         <v>77</v>
+      </c>
+      <c r="J18" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18" t="s">
+        <v>80</v>
+      </c>
+      <c r="O18">
+        <v>7</v>
+      </c>
+      <c r="P18" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q18">
+        <v>7</v>
+      </c>
+      <c r="R18" t="s">
+        <v>80</v>
+      </c>
+      <c r="S18">
+        <v>7</v>
+      </c>
+      <c r="T18" t="s">
+        <v>81</v>
+      </c>
+      <c r="U18">
+        <v>253</v>
+      </c>
+      <c r="V18" t="s">
+        <v>82</v>
+      </c>
+      <c r="W18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -2750,10 +2837,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="G19">
         <v>15</v>
@@ -2809,7 +2896,7 @@
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
@@ -2821,10 +2908,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="G20">
         <v>15</v>
@@ -2957,7 +3044,7 @@
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
@@ -2969,7 +3056,7 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s">
         <v>75</v>
@@ -3028,7 +3115,7 @@
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
@@ -3040,7 +3127,7 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F23" t="s">
         <v>75</v>
@@ -3099,7 +3186,7 @@
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
@@ -3111,10 +3198,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F24" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G24">
         <v>22</v>
@@ -3156,7 +3243,7 @@
         <v>7</v>
       </c>
       <c r="T24" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="U24">
         <v>251</v>
@@ -3170,7 +3257,7 @@
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -3182,7 +3269,7 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F25" t="s">
         <v>75</v>
@@ -3241,7 +3328,7 @@
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
         <v>72</v>
@@ -3253,7 +3340,7 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F26" t="s">
         <v>75</v>
@@ -3312,7 +3399,7 @@
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
         <v>72</v>
@@ -3321,7 +3408,7 @@
         <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F27" t="s">
         <v>75</v>
@@ -3380,7 +3467,7 @@
     </row>
     <row r="28" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s">
         <v>72</v>
@@ -3389,7 +3476,7 @@
         <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H28" t="s">
         <v>76</v>
@@ -3442,7 +3529,7 @@
     </row>
     <row r="29" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B29" t="s">
         <v>72</v>
@@ -3451,7 +3538,7 @@
         <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H29" t="s">
         <v>76</v>
@@ -3504,7 +3591,7 @@
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
@@ -3513,7 +3600,7 @@
         <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H30" t="s">
         <v>76</v>
@@ -3566,7 +3653,7 @@
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
         <v>72</v>
@@ -3578,7 +3665,7 @@
         <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F31" t="s">
         <v>75</v>
@@ -3637,7 +3724,7 @@
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B32" t="s">
         <v>72</v>
@@ -3649,7 +3736,7 @@
         <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H32" t="s">
         <v>76</v>
@@ -3694,10 +3781,10 @@
         <v>253</v>
       </c>
       <c r="V32" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="W32" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:68" x14ac:dyDescent="0.35">
@@ -3773,7 +3860,7 @@
     </row>
     <row r="34" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
         <v>72</v>
@@ -3785,7 +3872,7 @@
         <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F34" t="s">
         <v>91</v>
@@ -3836,15 +3923,15 @@
         <v>253</v>
       </c>
       <c r="V34" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="W34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
@@ -3856,7 +3943,7 @@
         <v>29</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F35" t="s">
         <v>91</v>
@@ -3915,7 +4002,7 @@
     </row>
     <row r="36" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
@@ -3927,7 +4014,7 @@
         <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F36" t="s">
         <v>91</v>
@@ -3978,15 +4065,15 @@
         <v>253</v>
       </c>
       <c r="V36" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="W36" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
@@ -3998,7 +4085,7 @@
         <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F37" t="s">
         <v>91</v>
@@ -4049,14 +4136,14 @@
         <v>253</v>
       </c>
       <c r="V37" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="W37" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BS37" xr:uid="{B31B9CE5-1C0A-444F-9FF0-53F8FBA86B73}">
+  <autoFilter ref="A1:BS37" xr:uid="{764D7539-1B94-445B-89D2-C76CDB7F597D}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS37">
       <sortCondition ref="E1:E37"/>
     </sortState>

--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-AL-algemeen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-AL-algemeen.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB53E917-725E-4ABE-BE59-229CB666D19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2144C1A7-2D61-4F5B-8ED4-0F10E0EE5857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-1620" windowWidth="38640" windowHeight="21240" xr2:uid="{0ADE6962-4B01-4437-B1AF-B39BE1B6C315}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{568D651B-BD58-43F5-8717-E25713BA4B85}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-AL-algemee" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'objecten-concept-5.1-AL-algemee'!$A$1:$BS$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'objecten-concept-5.1-AL-algemee'!$A$1:$BS$46</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="198">
   <si>
     <t>objectURI</t>
   </si>
@@ -544,6 +544,51 @@
     <t>LEGENDA</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/70d43886-6cab-4bce-953f-47ca228122a0</t>
+  </si>
+  <si>
+    <t>TABEL</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/ab1d8b14-1df8-480d-aff2-301f6e237489</t>
+  </si>
+  <si>
+    <t>ASSETKADER</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/dce36f86-f679-4edf-901b-8a0c6326c96c</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/bb788469-2050-46bb-b8c6-c6603c6e4776</t>
+  </si>
+  <si>
+    <t>ASSETNUMMER</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/6ebdc1ea-8f81-4e96-91a1-2224c0e14571</t>
+  </si>
+  <si>
+    <t>TABEL_PLAATSBEPALING</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/e2400392-419a-433d-9d86-2297cac8ca52</t>
+  </si>
+  <si>
+    <t>TABEL_BESTELTEKENINGEN</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/2a07028b-35c1-41ab-bd4b-5b10323b9cc4</t>
+  </si>
+  <si>
+    <t>TABEL_UITZETTING</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/fed3c62f-efe8-4aa8-8583-edf663b1bde4</t>
+  </si>
+  <si>
+    <t>TABEL_UITSLAG</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/eb014724-0f60-4622-9dc3-c2bad4053382</t>
   </si>
   <si>
@@ -560,6 +605,18 @@
   </si>
   <si>
     <t>TEKENBLAD_WERKZAAMHEDEN_LIJST</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/3424b867-9cdc-452c-9e1f-642dae091397</t>
+  </si>
+  <si>
+    <t>TABEL_PLAATSBEPALING_TRAVERSEN</t>
+  </si>
+  <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/aecaa672-7495-47b4-97c9-25cd26d13158</t>
+  </si>
+  <si>
+    <t>ASSETBESCHRIJVING</t>
   </si>
 </sst>
 </file>
@@ -1419,16 +1476,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764D7539-1B94-445B-89D2-C76CDB7F597D}">
-  <dimension ref="A1:BS37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D987EF-A071-4EAE-845C-B34AFF984A62}">
+  <dimension ref="A1:BS46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="AG17" sqref="AE17:AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.35">
@@ -1719,7 +1776,7 @@
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -1727,64 +1784,19 @@
       <c r="C3" t="s">
         <v>73</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="H3" t="s">
         <v>76</v>
       </c>
       <c r="I3" t="s">
         <v>77</v>
-      </c>
-      <c r="J3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3">
-        <v>7</v>
-      </c>
-      <c r="N3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3">
-        <v>7</v>
-      </c>
-      <c r="P3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q3">
-        <v>7</v>
-      </c>
-      <c r="R3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S3">
-        <v>7</v>
-      </c>
-      <c r="T3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U3">
-        <v>253</v>
-      </c>
-      <c r="V3" t="s">
-        <v>82</v>
-      </c>
-      <c r="W3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -1792,17 +1804,8 @@
       <c r="C4" t="s">
         <v>73</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
       <c r="E4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
+        <v>176</v>
       </c>
       <c r="H4" t="s">
         <v>76</v>
@@ -1811,10 +1814,10 @@
         <v>77</v>
       </c>
       <c r="J4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="L4" t="s">
         <v>80</v>
@@ -1823,10 +1826,10 @@
         <v>7</v>
       </c>
       <c r="N4" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="O4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P4" t="s">
         <v>80</v>
@@ -1841,10 +1844,10 @@
         <v>7</v>
       </c>
       <c r="T4" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="U4">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="V4" t="s">
         <v>82</v>
@@ -1855,7 +1858,7 @@
     </row>
     <row r="5" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -1863,17 +1866,8 @@
       <c r="C5" t="s">
         <v>73</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
       <c r="E5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="H5" t="s">
         <v>76</v>
@@ -1882,10 +1876,10 @@
         <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
         <v>80</v>
@@ -1912,10 +1906,10 @@
         <v>7</v>
       </c>
       <c r="T5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U5">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="V5" t="s">
         <v>82</v>
@@ -1926,7 +1920,7 @@
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -1935,16 +1929,10 @@
         <v>73</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="H6" t="s">
         <v>76</v>
@@ -1953,10 +1941,10 @@
         <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
         <v>80</v>
@@ -1997,7 +1985,7 @@
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -2006,10 +1994,10 @@
         <v>73</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F7" t="s">
         <v>138</v>
@@ -2024,10 +2012,10 @@
         <v>77</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
         <v>80</v>
@@ -2068,7 +2056,7 @@
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -2077,10 +2065,10 @@
         <v>73</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
         <v>138</v>
@@ -2095,10 +2083,10 @@
         <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
         <v>80</v>
@@ -2139,7 +2127,7 @@
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -2148,10 +2136,16 @@
         <v>73</v>
       </c>
       <c r="D9">
-        <v>3364</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>144</v>
+      </c>
+      <c r="F9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
       </c>
       <c r="H9" t="s">
         <v>76</v>
@@ -2160,10 +2154,10 @@
         <v>77</v>
       </c>
       <c r="J9" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
         <v>80</v>
@@ -2204,7 +2198,7 @@
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -2213,10 +2207,16 @@
         <v>73</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>172</v>
+        <v>146</v>
+      </c>
+      <c r="F10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
       </c>
       <c r="H10" t="s">
         <v>76</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -2278,10 +2278,16 @@
         <v>73</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>140</v>
+      </c>
+      <c r="F11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
       </c>
       <c r="H11" t="s">
         <v>76</v>
@@ -2330,17 +2336,11 @@
       </c>
       <c r="W11" t="s">
         <v>83</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>97</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -2349,10 +2349,10 @@
         <v>73</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>3364</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H12" t="s">
         <v>76</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
@@ -2414,10 +2414,10 @@
         <v>73</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="H13" t="s">
         <v>76</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
@@ -2479,10 +2479,10 @@
         <v>73</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
         <v>76</v>
@@ -2491,10 +2491,10 @@
         <v>77</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="L14" t="s">
         <v>80</v>
@@ -2533,15 +2533,15 @@
         <v>83</v>
       </c>
       <c r="BO14" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="BP14" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -2550,16 +2550,10 @@
         <v>73</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="H15" t="s">
         <v>76</v>
@@ -2568,10 +2562,10 @@
         <v>77</v>
       </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="L15" t="s">
         <v>80</v>
@@ -2612,7 +2606,7 @@
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
@@ -2621,16 +2615,10 @@
         <v>73</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="H16" t="s">
         <v>76</v>
@@ -2639,10 +2627,10 @@
         <v>77</v>
       </c>
       <c r="J16" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="L16" t="s">
         <v>80</v>
@@ -2683,7 +2671,7 @@
     </row>
     <row r="17" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -2691,17 +2679,8 @@
       <c r="C17" t="s">
         <v>73</v>
       </c>
-      <c r="D17">
-        <v>16</v>
-      </c>
       <c r="E17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="H17" t="s">
         <v>76</v>
@@ -2710,10 +2689,10 @@
         <v>77</v>
       </c>
       <c r="J17" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="L17" t="s">
         <v>80</v>
@@ -2740,10 +2719,10 @@
         <v>7</v>
       </c>
       <c r="T17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U17">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="V17" t="s">
         <v>82</v>
@@ -2754,7 +2733,7 @@
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -2762,17 +2741,8 @@
       <c r="C18" t="s">
         <v>73</v>
       </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
       <c r="E18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="H18" t="s">
         <v>76</v>
@@ -2781,10 +2751,10 @@
         <v>77</v>
       </c>
       <c r="J18" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="L18" t="s">
         <v>80</v>
@@ -2811,10 +2781,10 @@
         <v>7</v>
       </c>
       <c r="T18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U18">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="V18" t="s">
         <v>82</v>
@@ -2825,7 +2795,7 @@
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -2833,17 +2803,8 @@
       <c r="C19" t="s">
         <v>73</v>
       </c>
-      <c r="D19">
-        <v>18</v>
-      </c>
       <c r="E19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="H19" t="s">
         <v>76</v>
@@ -2852,10 +2813,10 @@
         <v>77</v>
       </c>
       <c r="J19" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="L19" t="s">
         <v>80</v>
@@ -2882,10 +2843,10 @@
         <v>7</v>
       </c>
       <c r="T19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U19">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="V19" t="s">
         <v>82</v>
@@ -2896,7 +2857,7 @@
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
@@ -2904,17 +2865,8 @@
       <c r="C20" t="s">
         <v>73</v>
       </c>
-      <c r="D20">
-        <v>19</v>
-      </c>
       <c r="E20" t="s">
-        <v>154</v>
-      </c>
-      <c r="F20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="H20" t="s">
         <v>76</v>
@@ -2953,10 +2905,10 @@
         <v>7</v>
       </c>
       <c r="T20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U20">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="V20" t="s">
         <v>82</v>
@@ -2967,7 +2919,7 @@
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -2975,17 +2927,8 @@
       <c r="C21" t="s">
         <v>73</v>
       </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
       <c r="E21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="H21" t="s">
         <v>76</v>
@@ -3024,27 +2967,21 @@
         <v>7</v>
       </c>
       <c r="T21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U21">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="V21" t="s">
         <v>82</v>
       </c>
       <c r="W21" t="s">
         <v>83</v>
-      </c>
-      <c r="BO21" t="s">
-        <v>84</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
@@ -3052,17 +2989,8 @@
       <c r="C22" t="s">
         <v>73</v>
       </c>
-      <c r="D22">
-        <v>21</v>
-      </c>
       <c r="E22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="H22" t="s">
         <v>76</v>
@@ -3101,10 +3029,10 @@
         <v>7</v>
       </c>
       <c r="T22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U22">
-        <v>253</v>
+        <v>7</v>
       </c>
       <c r="V22" t="s">
         <v>82</v>
@@ -3115,7 +3043,7 @@
     </row>
     <row r="23" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
@@ -3124,16 +3052,10 @@
         <v>73</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s">
         <v>76</v>
@@ -3182,11 +3104,17 @@
       </c>
       <c r="W23" t="s">
         <v>83</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
@@ -3195,16 +3123,16 @@
         <v>73</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="F24" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="G24">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
         <v>76</v>
@@ -3213,10 +3141,10 @@
         <v>77</v>
       </c>
       <c r="J24" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="L24" t="s">
         <v>80</v>
@@ -3243,10 +3171,10 @@
         <v>7</v>
       </c>
       <c r="T24" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="U24">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="V24" t="s">
         <v>82</v>
@@ -3257,7 +3185,7 @@
     </row>
     <row r="25" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -3266,10 +3194,10 @@
         <v>73</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F25" t="s">
         <v>75</v>
@@ -3284,10 +3212,10 @@
         <v>77</v>
       </c>
       <c r="J25" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="K25" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="L25" t="s">
         <v>80</v>
@@ -3328,7 +3256,7 @@
     </row>
     <row r="26" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="B26" t="s">
         <v>72</v>
@@ -3337,16 +3265,16 @@
         <v>73</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="G26">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
@@ -3355,10 +3283,10 @@
         <v>77</v>
       </c>
       <c r="J26" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="L26" t="s">
         <v>80</v>
@@ -3399,7 +3327,7 @@
     </row>
     <row r="27" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s">
         <v>72</v>
@@ -3407,14 +3335,17 @@
       <c r="C27" t="s">
         <v>73</v>
       </c>
+      <c r="D27">
+        <v>17</v>
+      </c>
       <c r="E27" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="G27">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H27" t="s">
         <v>76</v>
@@ -3423,10 +3354,10 @@
         <v>77</v>
       </c>
       <c r="J27" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="K27" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="L27" t="s">
         <v>80</v>
@@ -3467,7 +3398,7 @@
     </row>
     <row r="28" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B28" t="s">
         <v>72</v>
@@ -3475,8 +3406,17 @@
       <c r="C28" t="s">
         <v>73</v>
       </c>
+      <c r="D28">
+        <v>18</v>
+      </c>
       <c r="E28" t="s">
-        <v>176</v>
+        <v>150</v>
+      </c>
+      <c r="F28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28">
+        <v>15</v>
       </c>
       <c r="H28" t="s">
         <v>76</v>
@@ -3529,7 +3469,7 @@
     </row>
     <row r="29" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s">
         <v>72</v>
@@ -3537,8 +3477,17 @@
       <c r="C29" t="s">
         <v>73</v>
       </c>
+      <c r="D29">
+        <v>19</v>
+      </c>
       <c r="E29" t="s">
-        <v>178</v>
+        <v>154</v>
+      </c>
+      <c r="F29" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29">
+        <v>15</v>
       </c>
       <c r="H29" t="s">
         <v>76</v>
@@ -3547,10 +3496,10 @@
         <v>77</v>
       </c>
       <c r="J29" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K29" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="L29" t="s">
         <v>80</v>
@@ -3591,7 +3540,7 @@
     </row>
     <row r="30" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
@@ -3599,8 +3548,17 @@
       <c r="C30" t="s">
         <v>73</v>
       </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
       <c r="E30" t="s">
-        <v>174</v>
+        <v>74</v>
+      </c>
+      <c r="F30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30">
+        <v>12</v>
       </c>
       <c r="H30" t="s">
         <v>76</v>
@@ -3609,10 +3567,10 @@
         <v>77</v>
       </c>
       <c r="J30" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="L30" t="s">
         <v>80</v>
@@ -3649,11 +3607,17 @@
       </c>
       <c r="W30" t="s">
         <v>83</v>
+      </c>
+      <c r="BO30" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP30" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
         <v>72</v>
@@ -3662,10 +3626,10 @@
         <v>73</v>
       </c>
       <c r="D31">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F31" t="s">
         <v>75</v>
@@ -3680,10 +3644,10 @@
         <v>77</v>
       </c>
       <c r="J31" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="L31" t="s">
         <v>80</v>
@@ -3724,7 +3688,7 @@
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
         <v>72</v>
@@ -3733,10 +3697,16 @@
         <v>73</v>
       </c>
       <c r="D32">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>115</v>
+      </c>
+      <c r="F32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32">
+        <v>12</v>
       </c>
       <c r="H32" t="s">
         <v>76</v>
@@ -3745,10 +3715,10 @@
         <v>77</v>
       </c>
       <c r="J32" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="L32" t="s">
         <v>80</v>
@@ -3781,15 +3751,15 @@
         <v>253</v>
       </c>
       <c r="V32" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="W32" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="B33" t="s">
         <v>72</v>
@@ -3798,10 +3768,16 @@
         <v>73</v>
       </c>
       <c r="D33">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>156</v>
+      </c>
+      <c r="F33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33">
+        <v>22</v>
       </c>
       <c r="H33" t="s">
         <v>76</v>
@@ -3810,10 +3786,10 @@
         <v>77</v>
       </c>
       <c r="J33" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="L33" t="s">
         <v>80</v>
@@ -3840,27 +3816,21 @@
         <v>7</v>
       </c>
       <c r="T33" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="U33">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="V33" t="s">
         <v>82</v>
       </c>
       <c r="W33" t="s">
         <v>83</v>
-      </c>
-      <c r="BO33" t="s">
-        <v>93</v>
-      </c>
-      <c r="BP33" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
         <v>72</v>
@@ -3869,16 +3839,16 @@
         <v>73</v>
       </c>
       <c r="D34">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F34" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="G34">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
         <v>76</v>
@@ -3887,10 +3857,10 @@
         <v>77</v>
       </c>
       <c r="J34" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="L34" t="s">
         <v>80</v>
@@ -3923,15 +3893,15 @@
         <v>253</v>
       </c>
       <c r="V34" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="W34" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
         <v>72</v>
@@ -3940,16 +3910,16 @@
         <v>73</v>
       </c>
       <c r="D35">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="G35">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H35" t="s">
         <v>76</v>
@@ -3958,10 +3928,10 @@
         <v>77</v>
       </c>
       <c r="J35" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="L35" t="s">
         <v>80</v>
@@ -4002,7 +3972,7 @@
     </row>
     <row r="36" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
@@ -4010,17 +3980,14 @@
       <c r="C36" t="s">
         <v>73</v>
       </c>
-      <c r="D36">
-        <v>30</v>
-      </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="G36">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
         <v>76</v>
@@ -4029,10 +3996,10 @@
         <v>77</v>
       </c>
       <c r="J36" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="L36" t="s">
         <v>80</v>
@@ -4065,15 +4032,15 @@
         <v>253</v>
       </c>
       <c r="V36" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="W36" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
@@ -4081,17 +4048,8 @@
       <c r="C37" t="s">
         <v>73</v>
       </c>
-      <c r="D37">
-        <v>31</v>
-      </c>
       <c r="E37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G37">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="H37" t="s">
         <v>76</v>
@@ -4100,10 +4058,10 @@
         <v>77</v>
       </c>
       <c r="J37" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="L37" t="s">
         <v>80</v>
@@ -4136,16 +4094,631 @@
         <v>253</v>
       </c>
       <c r="V37" t="s">
+        <v>82</v>
+      </c>
+      <c r="W37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" t="s">
+        <v>193</v>
+      </c>
+      <c r="H38" t="s">
+        <v>76</v>
+      </c>
+      <c r="I38" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" t="s">
+        <v>87</v>
+      </c>
+      <c r="K38" t="s">
+        <v>88</v>
+      </c>
+      <c r="L38" t="s">
+        <v>80</v>
+      </c>
+      <c r="M38">
+        <v>7</v>
+      </c>
+      <c r="N38" t="s">
+        <v>80</v>
+      </c>
+      <c r="O38">
+        <v>7</v>
+      </c>
+      <c r="P38" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q38">
+        <v>7</v>
+      </c>
+      <c r="R38" t="s">
+        <v>80</v>
+      </c>
+      <c r="S38">
+        <v>7</v>
+      </c>
+      <c r="T38" t="s">
+        <v>81</v>
+      </c>
+      <c r="U38">
+        <v>253</v>
+      </c>
+      <c r="V38" t="s">
+        <v>82</v>
+      </c>
+      <c r="W38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" t="s">
+        <v>189</v>
+      </c>
+      <c r="H39" t="s">
+        <v>76</v>
+      </c>
+      <c r="I39" t="s">
+        <v>77</v>
+      </c>
+      <c r="J39" t="s">
+        <v>87</v>
+      </c>
+      <c r="K39" t="s">
+        <v>88</v>
+      </c>
+      <c r="L39" t="s">
+        <v>80</v>
+      </c>
+      <c r="M39">
+        <v>7</v>
+      </c>
+      <c r="N39" t="s">
+        <v>80</v>
+      </c>
+      <c r="O39">
+        <v>7</v>
+      </c>
+      <c r="P39" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q39">
+        <v>7</v>
+      </c>
+      <c r="R39" t="s">
+        <v>80</v>
+      </c>
+      <c r="S39">
+        <v>7</v>
+      </c>
+      <c r="T39" t="s">
+        <v>81</v>
+      </c>
+      <c r="U39">
+        <v>253</v>
+      </c>
+      <c r="V39" t="s">
+        <v>82</v>
+      </c>
+      <c r="W39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40">
+        <v>26</v>
+      </c>
+      <c r="E40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>76</v>
+      </c>
+      <c r="I40" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40" t="s">
+        <v>87</v>
+      </c>
+      <c r="K40" t="s">
+        <v>88</v>
+      </c>
+      <c r="L40" t="s">
+        <v>80</v>
+      </c>
+      <c r="M40">
+        <v>7</v>
+      </c>
+      <c r="N40" t="s">
+        <v>80</v>
+      </c>
+      <c r="O40">
+        <v>7</v>
+      </c>
+      <c r="P40" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q40">
+        <v>7</v>
+      </c>
+      <c r="R40" t="s">
+        <v>80</v>
+      </c>
+      <c r="S40">
+        <v>7</v>
+      </c>
+      <c r="T40" t="s">
+        <v>81</v>
+      </c>
+      <c r="U40">
+        <v>253</v>
+      </c>
+      <c r="V40" t="s">
+        <v>82</v>
+      </c>
+      <c r="W40" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H41" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41" t="s">
+        <v>77</v>
+      </c>
+      <c r="J41" t="s">
+        <v>101</v>
+      </c>
+      <c r="K41" t="s">
+        <v>102</v>
+      </c>
+      <c r="L41" t="s">
+        <v>80</v>
+      </c>
+      <c r="M41">
+        <v>7</v>
+      </c>
+      <c r="N41" t="s">
+        <v>80</v>
+      </c>
+      <c r="O41">
+        <v>7</v>
+      </c>
+      <c r="P41" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q41">
+        <v>7</v>
+      </c>
+      <c r="R41" t="s">
+        <v>80</v>
+      </c>
+      <c r="S41">
+        <v>7</v>
+      </c>
+      <c r="T41" t="s">
+        <v>81</v>
+      </c>
+      <c r="U41">
+        <v>253</v>
+      </c>
+      <c r="V41" t="s">
+        <v>169</v>
+      </c>
+      <c r="W41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42">
+        <v>27</v>
+      </c>
+      <c r="E42" t="s">
+        <v>92</v>
+      </c>
+      <c r="H42" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" t="s">
+        <v>77</v>
+      </c>
+      <c r="J42" t="s">
+        <v>78</v>
+      </c>
+      <c r="K42" t="s">
+        <v>79</v>
+      </c>
+      <c r="L42" t="s">
+        <v>80</v>
+      </c>
+      <c r="M42">
+        <v>7</v>
+      </c>
+      <c r="N42" t="s">
+        <v>80</v>
+      </c>
+      <c r="O42">
+        <v>7</v>
+      </c>
+      <c r="P42" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q42">
+        <v>7</v>
+      </c>
+      <c r="R42" t="s">
+        <v>80</v>
+      </c>
+      <c r="S42">
+        <v>7</v>
+      </c>
+      <c r="T42" t="s">
+        <v>81</v>
+      </c>
+      <c r="U42">
+        <v>253</v>
+      </c>
+      <c r="V42" t="s">
+        <v>82</v>
+      </c>
+      <c r="W42" t="s">
+        <v>83</v>
+      </c>
+      <c r="BO42" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43">
+        <v>28</v>
+      </c>
+      <c r="E43" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>76</v>
+      </c>
+      <c r="I43" t="s">
+        <v>77</v>
+      </c>
+      <c r="J43" t="s">
+        <v>101</v>
+      </c>
+      <c r="K43" t="s">
+        <v>102</v>
+      </c>
+      <c r="L43" t="s">
+        <v>80</v>
+      </c>
+      <c r="M43">
+        <v>7</v>
+      </c>
+      <c r="N43" t="s">
+        <v>80</v>
+      </c>
+      <c r="O43">
+        <v>7</v>
+      </c>
+      <c r="P43" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q43">
+        <v>7</v>
+      </c>
+      <c r="R43" t="s">
+        <v>80</v>
+      </c>
+      <c r="S43">
+        <v>7</v>
+      </c>
+      <c r="T43" t="s">
+        <v>81</v>
+      </c>
+      <c r="U43">
+        <v>253</v>
+      </c>
+      <c r="V43" t="s">
+        <v>134</v>
+      </c>
+      <c r="W43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44">
+        <v>29</v>
+      </c>
+      <c r="E44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" t="s">
+        <v>91</v>
+      </c>
+      <c r="G44">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>76</v>
+      </c>
+      <c r="I44" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44" t="s">
+        <v>101</v>
+      </c>
+      <c r="K44" t="s">
+        <v>102</v>
+      </c>
+      <c r="L44" t="s">
+        <v>80</v>
+      </c>
+      <c r="M44">
+        <v>7</v>
+      </c>
+      <c r="N44" t="s">
+        <v>80</v>
+      </c>
+      <c r="O44">
+        <v>7</v>
+      </c>
+      <c r="P44" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q44">
+        <v>7</v>
+      </c>
+      <c r="R44" t="s">
+        <v>80</v>
+      </c>
+      <c r="S44">
+        <v>7</v>
+      </c>
+      <c r="T44" t="s">
+        <v>81</v>
+      </c>
+      <c r="U44">
+        <v>253</v>
+      </c>
+      <c r="V44" t="s">
+        <v>82</v>
+      </c>
+      <c r="W44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45">
+        <v>30</v>
+      </c>
+      <c r="E45" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>76</v>
+      </c>
+      <c r="I45" t="s">
+        <v>77</v>
+      </c>
+      <c r="J45" t="s">
+        <v>101</v>
+      </c>
+      <c r="K45" t="s">
+        <v>102</v>
+      </c>
+      <c r="L45" t="s">
+        <v>80</v>
+      </c>
+      <c r="M45">
+        <v>7</v>
+      </c>
+      <c r="N45" t="s">
+        <v>80</v>
+      </c>
+      <c r="O45">
+        <v>7</v>
+      </c>
+      <c r="P45" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q45">
+        <v>7</v>
+      </c>
+      <c r="R45" t="s">
+        <v>80</v>
+      </c>
+      <c r="S45">
+        <v>7</v>
+      </c>
+      <c r="T45" t="s">
+        <v>81</v>
+      </c>
+      <c r="U45">
+        <v>253</v>
+      </c>
+      <c r="V45" t="s">
+        <v>130</v>
+      </c>
+      <c r="W45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46">
+        <v>31</v>
+      </c>
+      <c r="E46" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" t="s">
+        <v>91</v>
+      </c>
+      <c r="G46">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>76</v>
+      </c>
+      <c r="I46" t="s">
+        <v>77</v>
+      </c>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+      <c r="K46" t="s">
+        <v>79</v>
+      </c>
+      <c r="L46" t="s">
+        <v>80</v>
+      </c>
+      <c r="M46">
+        <v>7</v>
+      </c>
+      <c r="N46" t="s">
+        <v>80</v>
+      </c>
+      <c r="O46">
+        <v>7</v>
+      </c>
+      <c r="P46" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q46">
+        <v>7</v>
+      </c>
+      <c r="R46" t="s">
+        <v>80</v>
+      </c>
+      <c r="S46">
+        <v>7</v>
+      </c>
+      <c r="T46" t="s">
+        <v>81</v>
+      </c>
+      <c r="U46">
+        <v>253</v>
+      </c>
+      <c r="V46" t="s">
         <v>126</v>
       </c>
-      <c r="W37" t="s">
+      <c r="W46" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BS37" xr:uid="{764D7539-1B94-445B-89D2-C76CDB7F597D}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS37">
-      <sortCondition ref="E1:E37"/>
+  <autoFilter ref="A1:BS46" xr:uid="{41D987EF-A071-4EAE-845C-B34AFF984A62}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS46">
+      <sortCondition ref="E1:E46"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-AL-algemeen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-AL-algemeen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2144C1A7-2D61-4F5B-8ED4-0F10E0EE5857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A4F9A790-5807-4255-B7AF-338909C06ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{568D651B-BD58-43F5-8717-E25713BA4B85}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{244EE486-BA9A-4490-A26D-FC58247B055A}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-AL-algemee" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="198">
   <si>
     <t>objectURI</t>
   </si>
@@ -565,6 +565,12 @@
     <t>ASSETNUMMER</t>
   </si>
   <si>
+    <t>http://digitalbuildingdata.tech/nlcs/def/aecaa672-7495-47b4-97c9-25cd26d13158</t>
+  </si>
+  <si>
+    <t>ASSETBESCHRIJVING</t>
+  </si>
+  <si>
     <t>http://digitalbuildingdata.tech/nlcs/def/6ebdc1ea-8f81-4e96-91a1-2224c0e14571</t>
   </si>
   <si>
@@ -611,12 +617,6 @@
   </si>
   <si>
     <t>TABEL_PLAATSBEPALING_TRAVERSEN</t>
-  </si>
-  <si>
-    <t>http://digitalbuildingdata.tech/nlcs/def/aecaa672-7495-47b4-97c9-25cd26d13158</t>
-  </si>
-  <si>
-    <t>ASSETBESCHRIJVING</t>
   </si>
 </sst>
 </file>
@@ -1476,11 +1476,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D987EF-A071-4EAE-845C-B34AFF984A62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64121C4-7C4B-4002-82C2-14D1814E0EFF}">
   <dimension ref="A1:BS46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="AG17" sqref="AE17:AG17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:BS1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -1785,13 +1785,55 @@
         <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="H3" t="s">
         <v>76</v>
       </c>
       <c r="I3" t="s">
         <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3">
+        <v>7</v>
+      </c>
+      <c r="P3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="R3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U3">
+        <v>7</v>
+      </c>
+      <c r="V3" t="s">
+        <v>82</v>
+      </c>
+      <c r="W3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.35">
@@ -2733,7 +2775,7 @@
     </row>
     <row r="18" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -2742,7 +2784,7 @@
         <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H18" t="s">
         <v>76</v>
@@ -2795,7 +2837,7 @@
     </row>
     <row r="19" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -2804,7 +2846,7 @@
         <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H19" t="s">
         <v>76</v>
@@ -2857,7 +2899,7 @@
     </row>
     <row r="20" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
@@ -2866,7 +2908,7 @@
         <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H20" t="s">
         <v>76</v>
@@ -2919,7 +2961,7 @@
     </row>
     <row r="21" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -2928,7 +2970,7 @@
         <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H21" t="s">
         <v>76</v>
@@ -2981,7 +3023,7 @@
     </row>
     <row r="22" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
@@ -2990,7 +3032,7 @@
         <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H22" t="s">
         <v>76</v>
@@ -4040,7 +4082,7 @@
     </row>
     <row r="37" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
@@ -4049,7 +4091,7 @@
         <v>73</v>
       </c>
       <c r="E37" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H37" t="s">
         <v>76</v>
@@ -4102,7 +4144,7 @@
     </row>
     <row r="38" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s">
         <v>72</v>
@@ -4111,7 +4153,7 @@
         <v>73</v>
       </c>
       <c r="E38" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H38" t="s">
         <v>76</v>
@@ -4164,7 +4206,7 @@
     </row>
     <row r="39" spans="1:68" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s">
         <v>72</v>
@@ -4173,7 +4215,7 @@
         <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H39" t="s">
         <v>76</v>
@@ -4716,7 +4758,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BS46" xr:uid="{41D987EF-A071-4EAE-845C-B34AFF984A62}">
+  <autoFilter ref="A1:BS46" xr:uid="{A64121C4-7C4B-4002-82C2-14D1814E0EFF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS46">
       <sortCondition ref="E1:E46"/>
     </sortState>
